--- a/Recap Reph.xlsx
+++ b/Recap Reph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baroid\Desktop\recap_rephrasing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://halliburton-my.sharepoint.com/personal/mohamed_abdelrahman4_halliburton_com/Documents/Desktop/recap_rephrasing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9678F2-1374-4116-965E-484FED02BC2F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>Initials</t>
   </si>
@@ -282,6 +282,111 @@
   </si>
   <si>
     <t>design of service</t>
+  </si>
+  <si>
+    <t>B/R</t>
+  </si>
+  <si>
+    <t>back reaming</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>tool joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>BHGE</t>
+  </si>
+  <si>
+    <t>WFD</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>STDS</t>
+  </si>
+  <si>
+    <t>Stands</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Cross over</t>
+  </si>
+  <si>
+    <t>XMAS</t>
+  </si>
+  <si>
+    <t>LCM</t>
+  </si>
+  <si>
+    <t>Lost circulation material</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>MSDS</t>
+  </si>
+  <si>
+    <t>Product data sheet</t>
+  </si>
+  <si>
+    <t>Safety data sheet</t>
+  </si>
+  <si>
+    <t>Material safety data sheet</t>
+  </si>
+  <si>
+    <t>Christmas tree</t>
+  </si>
+  <si>
+    <t>Wireline logging</t>
+  </si>
+  <si>
+    <t>Weatherford</t>
+  </si>
+  <si>
+    <t>Baker Hughes</t>
+  </si>
+  <si>
+    <t>Halliburton</t>
+  </si>
+  <si>
+    <t>Schlumberger</t>
+  </si>
+  <si>
+    <t>Out diamter</t>
+  </si>
+  <si>
+    <t>Inner diameter</t>
+  </si>
+  <si>
+    <t>btm</t>
+  </si>
+  <si>
+    <t>bottom</t>
   </si>
 </sst>
 </file>
@@ -336,9 +441,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B41" totalsRowShown="0">
-  <autoFilter ref="A1:B41" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B59" totalsRowShown="0">
+  <autoFilter ref="A1:B59" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD993826-2670-4043-9BAC-11D437BE4C4F}" name="Initials"/>
     <tableColumn id="2" xr3:uid="{CBEFB6F5-4E75-450E-948C-4B3783843565}" name="Complete words"/>
@@ -610,16 +719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,6 +1057,150 @@
       </c>
       <c r="B41" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Recap Reph.xlsx
+++ b/Recap Reph.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Recap Reph.xlsx
+++ b/Recap Reph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://halliburton-my.sharepoint.com/personal/mohamed_abdelrahman4_halliburton_com/Documents/Desktop/recap_rephrasing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9678F2-1374-4116-965E-484FED02BC2F}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDC36560-8293-4121-BF90-7F503269EF6A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>Initials</t>
   </si>
@@ -383,10 +383,16 @@
     <t>Inner diameter</t>
   </si>
   <si>
-    <t>btm</t>
-  </si>
-  <si>
     <t>bottom</t>
+  </si>
+  <si>
+    <t>bottom up</t>
+  </si>
+  <si>
+    <t>BTM UP</t>
+  </si>
+  <si>
+    <t>BTM</t>
   </si>
 </sst>
 </file>
@@ -446,8 +452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B59" totalsRowShown="0">
-  <autoFilter ref="A1:B59" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B60" totalsRowShown="0">
+  <autoFilter ref="A1:B60" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD993826-2670-4043-9BAC-11D437BE4C4F}" name="Initials"/>
     <tableColumn id="2" xr3:uid="{CBEFB6F5-4E75-450E-948C-4B3783843565}" name="Complete words"/>
@@ -719,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,10 +1203,18 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Recap Reph.xlsx
+++ b/Recap Reph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://halliburton-my.sharepoint.com/personal/mohamed_abdelrahman4_halliburton_com/Documents/Desktop/recap_rephrasing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDC36560-8293-4121-BF90-7F503269EF6A}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46AA23FC-00FA-4997-9E8B-A57A97F283E3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
   <si>
     <t>Initials</t>
   </si>
@@ -393,6 +393,72 @@
   </si>
   <si>
     <t>BTM</t>
+  </si>
+  <si>
+    <t>HVM</t>
+  </si>
+  <si>
+    <t>HVP</t>
+  </si>
+  <si>
+    <t>HTHP</t>
+  </si>
+  <si>
+    <t>HPHT</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>PPB</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>CONC</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>High viscosity Mud</t>
+  </si>
+  <si>
+    <t>High viscosity pill</t>
+  </si>
+  <si>
+    <t>Hight temperature High pressure</t>
+  </si>
+  <si>
+    <t>High pressure High temperature</t>
+  </si>
+  <si>
+    <t>Plugging permeability test</t>
+  </si>
+  <si>
+    <t>PPA</t>
+  </si>
+  <si>
+    <t>particle size distribution</t>
+  </si>
+  <si>
+    <t>pound per barrel</t>
+  </si>
+  <si>
+    <t>barrels</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Directional</t>
+  </si>
+  <si>
+    <t>Plugging permeability apparatus</t>
   </si>
 </sst>
 </file>
@@ -452,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B60" totalsRowShown="0">
-  <autoFilter ref="A1:B60" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B71" totalsRowShown="0">
+  <autoFilter ref="A1:B71" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD993826-2670-4043-9BAC-11D437BE4C4F}" name="Initials"/>
     <tableColumn id="2" xr3:uid="{CBEFB6F5-4E75-450E-948C-4B3783843565}" name="Complete words"/>
@@ -725,16 +791,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1215,6 +1281,94 @@
       </c>
       <c r="B60" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Recap Reph.xlsx
+++ b/Recap Reph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://halliburton-my.sharepoint.com/personal/mohamed_abdelrahman4_halliburton_com/Documents/Desktop/recap_rephrasing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46AA23FC-00FA-4997-9E8B-A57A97F283E3}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C01064-A53A-43DB-9CA6-2AA8CAC62DE7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
   <si>
     <t>Initials</t>
   </si>
@@ -459,6 +459,48 @@
   </si>
   <si>
     <t>Plugging permeability apparatus</t>
+  </si>
+  <si>
+    <t>L/D</t>
+  </si>
+  <si>
+    <t>lay down</t>
+  </si>
+  <si>
+    <t>LMP</t>
+  </si>
+  <si>
+    <t>liquid mud plant</t>
+  </si>
+  <si>
+    <t>HLB</t>
+  </si>
+  <si>
+    <t>halliburton</t>
+  </si>
+  <si>
+    <t>CONT.</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -513,13 +555,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B71" totalsRowShown="0">
-  <autoFilter ref="A1:B71" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B81" totalsRowShown="0">
+  <autoFilter ref="A1:B81" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD993826-2670-4043-9BAC-11D437BE4C4F}" name="Initials"/>
     <tableColumn id="2" xr3:uid="{CBEFB6F5-4E75-450E-948C-4B3783843565}" name="Complete words"/>
@@ -791,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,6 +1407,86 @@
       </c>
       <c r="B71" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Recap Reph.xlsx
+++ b/Recap Reph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://halliburton-my.sharepoint.com/personal/mohamed_abdelrahman4_halliburton_com/Documents/Desktop/recap_rephrasing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baroid\OneDrive - Halliburton\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{55D9725B-1BA6-473B-A8B4-4073D824D568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C01064-A53A-43DB-9CA6-2AA8CAC62DE7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D53501D-16C3-498F-83CC-A1C8C19022B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
   <si>
     <t>Initials</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t>ND</t>
+  </si>
+  <si>
+    <t>PHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre hydrated bentonite </t>
+  </si>
+  <si>
+    <t>MWD</t>
+  </si>
+  <si>
+    <t>Measuring while drilling</t>
+  </si>
+  <si>
+    <t>PHPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially hydrolized poly acrylamide </t>
+  </si>
+  <si>
+    <t> rotary steerable system</t>
+  </si>
+  <si>
+    <t>RSS</t>
   </si>
 </sst>
 </file>
@@ -556,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B81" totalsRowShown="0">
-  <autoFilter ref="A1:B81" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}" name="Table1" displayName="Table1" ref="A1:B85" totalsRowShown="0">
+  <autoFilter ref="A1:B85" xr:uid="{05823ED2-80B5-4BD9-B89C-2141E9A84488}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DD993826-2670-4043-9BAC-11D437BE4C4F}" name="Initials"/>
     <tableColumn id="2" xr3:uid="{CBEFB6F5-4E75-450E-948C-4B3783843565}" name="Complete words"/>
@@ -829,19 +853,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -857,7 +881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -865,7 +889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -873,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -881,7 +905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -889,7 +913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -897,7 +921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -905,7 +929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -913,7 +937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -921,7 +945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -929,7 +953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -937,7 +961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -945,7 +969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -953,7 +977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -961,7 +985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -969,7 +993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -977,7 +1001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -985,7 +1009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -993,7 +1017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1065,7 +1089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1073,7 +1097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1081,7 +1105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1089,7 +1113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1113,7 +1137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1129,7 +1153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1137,7 +1161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1145,7 +1169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1153,7 +1177,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1161,7 +1185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1177,7 +1201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1185,7 +1209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1193,7 +1217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -1201,7 +1225,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -1217,7 +1241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1225,7 +1249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1233,7 +1257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -1249,7 +1273,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -1257,7 +1281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -1265,7 +1289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -1273,7 +1297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -1289,7 +1313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -1305,7 +1329,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -1313,7 +1337,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -1329,7 +1353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -1337,7 +1361,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -1345,7 +1369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -1353,7 +1377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -1361,7 +1385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -1385,7 +1409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -1409,7 +1433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -1425,7 +1449,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>147</v>
       </c>
@@ -1441,7 +1465,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -1449,7 +1473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -1457,7 +1481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -1465,7 +1489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -1473,7 +1497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -1481,12 +1505,44 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>154</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
